--- a/LubanTools/DesignerConfigs/Datas/unit.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\ItisUnreal\LubanTools\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5658B2D3-1377-45F4-A5E4-68A33F4E59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115FCCD2-C4DB-4296-88F3-D643D06C79AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>IconPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseAttackFreq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击频率(x回合后攻击一次)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -621,11 +633,11 @@
     <col min="3" max="4" width="17.88671875" style="5" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="8" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -647,10 +659,13 @@
         <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -672,10 +687,13 @@
         <v>24</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -697,10 +715,13 @@
         <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5">
         <v>1</v>
@@ -723,11 +744,14 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>2</v>
@@ -750,11 +774,14 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5">
         <v>3</v>
@@ -777,58 +804,61 @@
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="8"/>
     </row>
   </sheetData>
